--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -1,40 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>visitor</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>v_line</t>
+  </si>
+  <si>
+    <t>l_line</t>
+  </si>
+  <si>
+    <t>Predictions</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>BRK</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,105 +104,52 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" quotePrefix="0" pivotButton="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -186,13 +195,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -220,13 +229,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -423,101 +432,395 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="17.421875"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>visitor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>local</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>v_line</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>l_line</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Predictions</t>
-        </is>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45326</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1.359712230215827</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>3.75</v>
+      </c>
+      <c r="E2">
+        <v>1.2898550724637681</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45326</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="A3" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1.0909090909090911</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E4">
+        <v>1.645161290322581</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1.645161290322581</v>
+      </c>
+      <c r="E5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1.48780487804878</v>
+      </c>
+      <c r="E6">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1.645161290322581</v>
+      </c>
+      <c r="E7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>2.3999999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.602409638554217</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.16</v>
+        <v>3.05</v>
       </c>
       <c r="E2" t="n">
-        <v>5.55</v>
+        <v>1.4</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.350877192982456</v>
+        <v>5.1</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.5</v>
+        <v>1.520833333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>1.125</v>
+        <v>2.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,47 +543,47 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.505050505050505</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="E5" t="n">
-        <v>2.64</v>
+        <v>2.85</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>1.980392156862745</v>
       </c>
       <c r="E6" t="n">
-        <v>1.289855072463768</v>
+        <v>1.847457627118644</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,31 +591,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.1</v>
+        <v>1.434782608695652</v>
       </c>
       <c r="E7" t="n">
-        <v>1.387596899224806</v>
+        <v>2.9</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -624,17 +624,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.75</v>
+        <v>2.8</v>
       </c>
       <c r="E8" t="n">
-        <v>1.117647058823529</v>
+        <v>1.458715596330275</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.387596899224806</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.617283950617284</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.05</v>
+        <v>1.740740740740741</v>
       </c>
       <c r="E2" t="n">
-        <v>1.4</v>
+        <v>2.14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.1</v>
+        <v>9.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.181818181818182</v>
+        <v>1.068965517241379</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.520833333333333</v>
+        <v>2.8</v>
       </c>
       <c r="E4" t="n">
-        <v>2.6</v>
+        <v>1.458715596330275</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,119 +543,119 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.444444444444444</v>
+        <v>2.7</v>
       </c>
       <c r="E5" t="n">
-        <v>2.85</v>
+        <v>1.48780487804878</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.980392156862745</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="E6" t="n">
-        <v>1.847457627118644</v>
+        <v>2.45</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.434782608695652</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="E7" t="n">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.8</v>
+        <v>1.289855072463768</v>
       </c>
       <c r="E8" t="n">
-        <v>1.458715596330275</v>
+        <v>3.75</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.15</v>
+        <v>1.520833333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>1.387596899224806</v>
+        <v>2.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -663,25 +663,73 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.617283950617284</v>
+        <v>2.64</v>
       </c>
       <c r="E10" t="n">
-        <v>2.36</v>
+        <v>1.505050505050505</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.769230769230769</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.350877192982456</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.740740740740741</v>
+        <v>4.7</v>
       </c>
       <c r="E2" t="n">
-        <v>2.14</v>
+        <v>1.206185567010309</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.5</v>
+        <v>1.206185567010309</v>
       </c>
       <c r="E3" t="n">
-        <v>1.068965517241379</v>
+        <v>4.7</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="E4" t="n">
-        <v>1.458715596330275</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="E5" t="n">
-        <v>1.48780487804878</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,47 +567,47 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.571428571428571</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="E6" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.588235294117647</v>
+        <v>1.847457627118644</v>
       </c>
       <c r="E7" t="n">
-        <v>2.42</v>
+        <v>1.980392156862745</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -615,23 +615,23 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.289855072463768</v>
+        <v>1.253164556962025</v>
       </c>
       <c r="E8" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -639,23 +639,23 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.520833333333333</v>
+        <v>6.75</v>
       </c>
       <c r="E9" t="n">
-        <v>2.6</v>
+        <v>1.117647058823529</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -663,74 +663,50 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.64</v>
+        <v>1.892857142857143</v>
       </c>
       <c r="E10" t="n">
-        <v>1.505050505050505</v>
+        <v>1.925925925925926</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.769230769230769</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2.1</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45332</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1.350877192982456</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.7</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>1.206185567010309</v>
+        <v>3.95</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.206185567010309</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="E3" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.42</v>
+        <v>3.6</v>
       </c>
       <c r="E4" t="n">
-        <v>1.588235294117647</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="E5" t="n">
-        <v>1.444444444444444</v>
+        <v>1.48780487804878</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,145 +567,49 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.588235294117647</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="E6" t="n">
-        <v>2.42</v>
+        <v>3.85</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.847457627118644</v>
+        <v>4.9</v>
       </c>
       <c r="E7" t="n">
-        <v>1.980392156862745</v>
+        <v>1.192307692307692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.253164556962025</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.117647058823529</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1.892857142857143</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.925925925925926</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.555555555555556</v>
-      </c>
-      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.266666666666667</v>
+        <v>1.4</v>
       </c>
       <c r="E2" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,11 +495,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,18 +508,18 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.704225352112676</v>
+        <v>2.36</v>
       </c>
       <c r="E3" t="n">
-        <v>2.2</v>
+        <v>1.617283950617284</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -528,14 +528,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="E4" t="n">
-        <v>1.307692307692308</v>
+        <v>1.602409638554217</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1.48780487804878</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.277777777777778</v>
+        <v>1.602409638554217</v>
       </c>
       <c r="E6" t="n">
-        <v>3.85</v>
+        <v>2.4</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -591,26 +591,194 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.9</v>
+        <v>7.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.192307692307692</v>
+        <v>1.1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.740740740740741</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.48780487804878</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.48780487804878</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.704225352112676</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.4</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="E2" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="E3" t="n">
-        <v>1.617283950617284</v>
+        <v>2.05</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,265 +519,25 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.4</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="E4" t="n">
-        <v>1.602409638554217</v>
+        <v>4.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.263157894736842</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.602409638554217</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.105263157894737</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.740740740740741</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.48780487804878</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.48780487804878</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.704225352112676</v>
-      </c>
-      <c r="F14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.142857142857143</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="E3" t="n">
-        <v>2.05</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,26 +519,242 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.235294117647059</v>
+        <v>3.6</v>
       </c>
       <c r="E4" t="n">
-        <v>4.3</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1.952380952380952</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.869565217391304</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.769230769230769</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.740740740740741</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.359712230215827</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.359712230215827</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.227272727272727</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.068965517241379</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.675675675675676</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.952380952380952</v>
+        <v>3.45</v>
       </c>
       <c r="E2" t="n">
-        <v>1.869565217391304</v>
+        <v>1.327868852459016</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.4</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="E3" t="n">
-        <v>1.166666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>1.307692307692308</v>
+        <v>1.0625</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,47 +543,47 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.952380952380952</v>
+        <v>1.24390243902439</v>
       </c>
       <c r="E5" t="n">
-        <v>1.869565217391304</v>
+        <v>4.3</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="E6" t="n">
-        <v>1.769230769230769</v>
+        <v>1.675675675675676</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,23 +591,23 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.740740740740741</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -615,23 +615,23 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.359712230215827</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="E8" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -639,23 +639,23 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>1.359712230215827</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -663,97 +663,25 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="E10" t="n">
-        <v>1.227272727272727</v>
+        <v>1.212765957446809</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45338</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.068965517241379</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45338</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.675675675675676</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45338</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.45</v>
+        <v>1.458715596330275</v>
       </c>
       <c r="E2" t="n">
-        <v>1.327868852459016</v>
+        <v>2.8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>PHO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
       <c r="D3" t="n">
-        <v>1.555555555555556</v>
+        <v>2.45</v>
       </c>
       <c r="E3" t="n">
-        <v>2.5</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0625</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.24390243902439</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="E5" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,95 +567,95 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.24</v>
+        <v>1.892857142857143</v>
       </c>
       <c r="E6" t="n">
-        <v>1.675675675675676</v>
+        <v>1.925925925925926</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.5</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="E7" t="n">
-        <v>1.555555555555556</v>
+        <v>2.95</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.235294117647059</v>
+        <v>2.36</v>
       </c>
       <c r="E8" t="n">
-        <v>4.3</v>
+        <v>1.617283950617284</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="E9" t="n">
-        <v>1.111111111111111</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -672,16 +672,64 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="E10" t="n">
-        <v>1.212765957446809</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.675675675675676</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45347</v>
+        <v>45348</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.458715596330275</v>
+        <v>2.9</v>
       </c>
       <c r="E2" t="n">
-        <v>2.8</v>
+        <v>1.434782608695652</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45347</v>
+        <v>45348</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.45</v>
+        <v>5.55</v>
       </c>
       <c r="E3" t="n">
-        <v>1.571428571428571</v>
+        <v>1.16</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,217 +519,49 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45347</v>
+        <v>45348</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.833333333333333</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45347</v>
+        <v>45348</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.153846153846154</v>
+        <v>3.1</v>
       </c>
       <c r="E5" t="n">
-        <v>5.7</v>
+        <v>1.387596899224806</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.892857142857143</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.925925925925926</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1.420168067226891</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.617283950617284</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.869565217391304</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.952380952380952</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.37037037037037</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.675675675675676</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.9</v>
+        <v>1.16</v>
       </c>
       <c r="E2" t="n">
-        <v>1.434782608695652</v>
+        <v>5.55</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.55</v>
+        <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.16</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -528,41 +528,209 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.769230769230769</v>
+        <v>4.1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.1</v>
+        <v>1.253164556962025</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.769230769230769</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.704225352112676</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.095238095238095</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.068965517241379</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>MIA</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.387596899224806</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.359712230215827</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.16</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="E2" t="n">
-        <v>5.55</v>
+        <v>2.3</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="E3" t="n">
-        <v>1.555555555555556</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.1</v>
+        <v>1.48780487804878</v>
       </c>
       <c r="E4" t="n">
-        <v>1.253164556962025</v>
+        <v>2.7</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,16 +543,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.769230769230769</v>
+        <v>1.335570469798658</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,146 +591,26 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.704225352112676</v>
+        <v>2.36</v>
       </c>
       <c r="E7" t="n">
-        <v>2.2</v>
+        <v>1.617283950617284</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.095238095238095</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.068965517241379</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1.359712230215827</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.645161290322581</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="E2" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="E3" t="n">
-        <v>1.420168067226891</v>
+        <v>1.4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.48780487804878</v>
+        <v>1.540540540540541</v>
       </c>
       <c r="E4" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.25</v>
+        <v>2.02</v>
       </c>
       <c r="E5" t="n">
-        <v>1.133333333333333</v>
+        <v>1.819672131147541</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,49 +567,97 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.4</v>
+        <v>1.16</v>
       </c>
       <c r="E6" t="n">
-        <v>1.335570469798658</v>
+        <v>5.55</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.266666666666667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.505050505050505</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.617283950617284</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.24390243902439</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,71 +471,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.142857142857143</v>
+        <v>5.4</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.05</v>
+        <v>1.253164556962025</v>
       </c>
       <c r="E3" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.540540540540541</v>
+        <v>4.1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.54</v>
+        <v>1.253164556962025</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.02</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="E5" t="n">
-        <v>1.819672131147541</v>
+        <v>2.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,47 +567,47 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.16</v>
+        <v>2.7</v>
       </c>
       <c r="E6" t="n">
-        <v>5.55</v>
+        <v>1.48780487804878</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>1.266666666666667</v>
+        <v>1.408163265306122</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -615,23 +615,23 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.64</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="E8" t="n">
-        <v>1.505050505050505</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -639,25 +639,49 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.555555555555556</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>WAS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.24390243902439</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.068965517241379</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.4</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="E2" t="n">
-        <v>1.166666666666667</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.253164556962025</v>
+        <v>3.35</v>
       </c>
       <c r="E3" t="n">
-        <v>4.1</v>
+        <v>1.344827586206897</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="E4" t="n">
-        <v>1.253164556962025</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,145 +543,49 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.645161290322581</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="E5" t="n">
-        <v>2.3</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.48780487804878</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.408163265306122</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.952380952380952</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.869565217391304</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.555555555555556</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.068965517241379</v>
-      </c>
-      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.869565217391304</v>
+        <v>2.14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.952380952380952</v>
+        <v>1.689655172413793</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="E3" t="n">
-        <v>1.344827586206897</v>
+        <v>1.212765957446809</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="E4" t="n">
-        <v>1.704225352112676</v>
+        <v>1.740740740740741</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,49 +543,121 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.909090909090909</v>
+        <v>5.4</v>
       </c>
       <c r="E5" t="n">
-        <v>1.909090909090909</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.335570469798658</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>PHO</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.227272727272727</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D9" t="n">
+        <v>1.408163265306122</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.14</v>
+        <v>4.3</v>
       </c>
       <c r="E2" t="n">
-        <v>1.689655172413793</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.6</v>
+        <v>2.64</v>
       </c>
       <c r="E3" t="n">
-        <v>1.212765957446809</v>
+        <v>1.505050505050505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,11 +519,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.14</v>
+        <v>8.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1.740740740740741</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.4</v>
+        <v>2.85</v>
       </c>
       <c r="E5" t="n">
-        <v>1.166666666666667</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="E6" t="n">
-        <v>1.335570469798658</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,74 +591,26 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.05</v>
+        <v>1.980392156862745</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4</v>
+        <v>1.847457627118644</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45354</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="F8" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45354</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.408163265306122</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,95 +471,95 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.3</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>1.235294117647059</v>
+        <v>3.95</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.64</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="E3" t="n">
-        <v>1.505050505050505</v>
+        <v>3.7</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.5</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="E4" t="n">
-        <v>1.083333333333333</v>
+        <v>4.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.85</v>
+        <v>5.55</v>
       </c>
       <c r="E5" t="n">
-        <v>1.444444444444444</v>
+        <v>1.16</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,50 +567,122 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.95</v>
+        <v>1.925925925925926</v>
       </c>
       <c r="E6" t="n">
-        <v>1.420168067226891</v>
+        <v>1.892857142857143</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.980392156862745</v>
+        <v>2.24</v>
       </c>
       <c r="E7" t="n">
-        <v>1.847457627118644</v>
+        <v>1.675675675675676</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.307692307692308</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.540540540540541</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.227272727272727</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -480,14 +480,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.266666666666667</v>
+        <v>1.350877192982456</v>
       </c>
       <c r="E2" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.294117647058824</v>
+        <v>1.387596899224806</v>
       </c>
       <c r="E3" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,47 +519,47 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.235294117647059</v>
+        <v>2.8</v>
       </c>
       <c r="E4" t="n">
-        <v>4.3</v>
+        <v>1.458715596330275</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.55</v>
+        <v>2.2</v>
       </c>
       <c r="E5" t="n">
-        <v>1.16</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,121 +567,97 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.925925925925926</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="E6" t="n">
-        <v>1.892857142857143</v>
+        <v>2.42</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="E7" t="n">
-        <v>1.675675675675676</v>
+        <v>1.617283950617284</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.307692307692308</v>
+        <v>7.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.54</v>
+        <v>2.14</v>
       </c>
       <c r="E9" t="n">
-        <v>1.540540540540541</v>
+        <v>1.740740740740741</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.227272727272727</v>
-      </c>
-      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.350877192982456</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3.3</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.387596899224806</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="E4" t="n">
-        <v>1.458715596330275</v>
+        <v>1.520833333333333</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="E5" t="n">
-        <v>1.704225352112676</v>
+        <v>1.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.588235294117647</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="E6" t="n">
-        <v>2.42</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,11 +591,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -604,60 +604,36 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.36</v>
+        <v>3.7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.617283950617284</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.1</v>
+        <v>5.25</v>
       </c>
       <c r="E8" t="n">
-        <v>7.5</v>
+        <v>1.173913043478261</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.740740740740741</v>
-      </c>
-      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1.327868852459016</v>
       </c>
       <c r="E2" t="n">
-        <v>1.833333333333333</v>
+        <v>3.45</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.769230769230769</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.6</v>
+        <v>1.847457627118644</v>
       </c>
       <c r="E4" t="n">
-        <v>1.520833333333333</v>
+        <v>1.980392156862745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.8</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.952380952380952</v>
+        <v>3.85</v>
       </c>
       <c r="E6" t="n">
-        <v>1.869565217391304</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,50 +591,74 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.7</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="E7" t="n">
-        <v>1.294117647058824</v>
+        <v>2.2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.25</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="E8" t="n">
-        <v>1.173913043478261</v>
+        <v>2.1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.444444444444444</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.327868852459016</v>
+        <v>3.2</v>
       </c>
       <c r="E2" t="n">
-        <v>3.45</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,71 +495,71 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>1.327868852459016</v>
       </c>
       <c r="E3" t="n">
-        <v>1.769230769230769</v>
+        <v>3.45</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.847457627118644</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="E4" t="n">
-        <v>1.980392156862745</v>
+        <v>2.95</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.952380952380952</v>
+        <v>1.458715596330275</v>
       </c>
       <c r="E5" t="n">
-        <v>1.869565217391304</v>
+        <v>2.8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>1.277777777777778</v>
+        <v>1.212765957446809</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,73 +591,49 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.704225352112676</v>
+        <v>6.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.769230769230769</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="E8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45359</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.444444444444444</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="E2" t="n">
-        <v>1.37037037037037</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.327868852459016</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="E3" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.420168067226891</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="E4" t="n">
-        <v>2.95</v>
+        <v>2.45</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -543,47 +543,47 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.458715596330275</v>
+        <v>1.540540540540541</v>
       </c>
       <c r="E5" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.6</v>
+        <v>8.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.212765957446809</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,49 +591,25 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.5</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="E7" t="n">
-        <v>1.125</v>
+        <v>4.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45360</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.704225352112676</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F8" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.645161290322581</v>
+        <v>1.387596899224806</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.420168067226891</v>
+        <v>3.3</v>
       </c>
       <c r="E3" t="n">
-        <v>2.95</v>
+        <v>1.350877192982456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.571428571428571</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="E4" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -543,11 +543,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.540540540540541</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="E5" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,50 +567,74 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.083333333333333</v>
+        <v>3.05</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.227272727272727</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="E7" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.359712230215827</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="E2" t="n">
-        <v>1.387596899224806</v>
+        <v>1.359712230215827</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="E3" t="n">
-        <v>1.350877192982456</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.769230769230769</v>
+        <v>1.617283950617284</v>
       </c>
       <c r="E4" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -543,88 +543,88 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.588235294117647</v>
+        <v>2.4</v>
       </c>
       <c r="E5" t="n">
-        <v>2.42</v>
+        <v>1.602409638554217</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="E6" t="n">
-        <v>3.05</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.704225352112676</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -635,6 +635,54 @@
       </c>
       <c r="F8" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.740740740740741</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.617283950617284</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="E2" t="n">
-        <v>1.359712230215827</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="E3" t="n">
-        <v>1.645161290322581</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,71 +519,71 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.617283950617284</v>
+        <v>3.6</v>
       </c>
       <c r="E4" t="n">
-        <v>2.36</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
       <c r="D5" t="n">
-        <v>2.4</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="E5" t="n">
-        <v>1.602409638554217</v>
+        <v>2.95</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.37037037037037</v>
+        <v>1.186915887850467</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,97 +591,25 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.833333333333333</v>
+        <v>1.186915887850467</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.359712230215827</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.740740740740741</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1.617283950617284</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -471,71 +471,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.85</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="E2" t="n">
-        <v>1.444444444444444</v>
+        <v>3.7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.6</v>
+        <v>1.21978021978022</v>
       </c>
       <c r="E3" t="n">
-        <v>1.307692307692308</v>
+        <v>4.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.6</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="E4" t="n">
-        <v>1.307692307692308</v>
+        <v>3.7</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -552,65 +552,65 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.420168067226891</v>
+        <v>3.35</v>
       </c>
       <c r="E5" t="n">
-        <v>2.95</v>
+        <v>1.344827586206897</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>1.186915887850467</v>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.186915887850467</v>
-      </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.186915887850467</v>
+        <v>1.740740740740741</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2.14</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.294117647058824</v>
+        <v>1.505050505050505</v>
       </c>
       <c r="E2" t="n">
-        <v>3.7</v>
+        <v>2.64</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.21978021978022</v>
+        <v>4.1</v>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>1.253164556962025</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.294117647058824</v>
+        <v>5.1</v>
       </c>
       <c r="E4" t="n">
-        <v>3.7</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,11 +543,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.35</v>
+        <v>7.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1.344827586206897</v>
+        <v>1.1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.186915887850467</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -591,25 +591,97 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.212765957446809</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.769230769230769</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1.740740740740741</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D9" t="n">
+        <v>1.294117647058824</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.617283950617284</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.505050505050505</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="E2" t="n">
-        <v>2.64</v>
+        <v>4.4</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.1</v>
+        <v>2.14</v>
       </c>
       <c r="E3" t="n">
-        <v>1.253164556962025</v>
+        <v>1.740740740740741</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="E4" t="n">
-        <v>1.181818181818182</v>
+        <v>1.192307692307692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,71 +543,71 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.5</v>
+        <v>1.16</v>
       </c>
       <c r="E5" t="n">
-        <v>1.1</v>
+        <v>5.55</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>OKC</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>4.8</v>
+        <v>1.074074074074074</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="E7" t="n">
-        <v>1.212765957446809</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -615,23 +615,23 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="E8" t="n">
-        <v>1.769230769230769</v>
+        <v>1.24390243902439</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -639,50 +639,26 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.294117647058824</v>
+        <v>1.125</v>
       </c>
       <c r="E9" t="n">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.617283950617284</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.227272727272727</v>
+        <v>1.16</v>
       </c>
       <c r="E2" t="n">
-        <v>4.4</v>
+        <v>5.55</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.14</v>
+        <v>1.675675675675676</v>
       </c>
       <c r="E3" t="n">
-        <v>1.740740740740741</v>
+        <v>2.24</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>MIL</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
       <c r="D4" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="E4" t="n">
-        <v>1.192307692307692</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.16</v>
+        <v>2.42</v>
       </c>
       <c r="E5" t="n">
-        <v>5.55</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -576,14 +576,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.074074074074074</v>
+        <v>1.1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,23 +591,23 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="E7" t="n">
-        <v>1.166666666666667</v>
+        <v>1.24390243902439</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -615,11 +615,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -628,37 +628,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E8" t="n">
-        <v>1.24390243902439</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45371</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.16</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>5.55</v>
+        <v>8.5</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.675675675675676</v>
+        <v>1.060606060606061</v>
       </c>
       <c r="E3" t="n">
-        <v>2.24</v>
+        <v>10.5</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1.227272727272727</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,97 +543,121 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.42</v>
+        <v>3.35</v>
       </c>
       <c r="E5" t="n">
-        <v>1.588235294117647</v>
+        <v>1.344827586206897</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="E6" t="n">
-        <v>1.1</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.24390243902439</v>
+        <v>1.48780487804878</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.235294117647059</v>
+        <v>7.5</v>
       </c>
       <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.335570469798658</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,71 +471,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.083333333333333</v>
+        <v>3.45</v>
       </c>
       <c r="E2" t="n">
-        <v>8.5</v>
+        <v>1.327868852459016</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.060606060606061</v>
+        <v>2.3</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.420168067226891</v>
+        <v>1.253164556962025</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,121 +543,49 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.35</v>
+        <v>1.212765957446809</v>
       </c>
       <c r="E5" t="n">
-        <v>1.344827586206897</v>
+        <v>4.6</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="E6" t="n">
-        <v>1.645161290322581</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.48780487804878</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.335570469798658</v>
-      </c>
-      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,78 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.45</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="E2" t="n">
-        <v>1.327868852459016</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.645161290322581</v>
+        <v>1.21978021978022</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.1</v>
+        <v>2.45</v>
       </c>
       <c r="E4" t="n">
-        <v>1.253164556962025</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,47 +543,47 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.212765957446809</v>
+        <v>2.24</v>
       </c>
       <c r="E5" t="n">
-        <v>4.6</v>
+        <v>1.675675675675676</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1.444444444444444</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,74 +591,26 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.37</v>
+        <v>2.3</v>
       </c>
       <c r="E7" t="n">
-        <v>3.2</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45374</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="F8" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45374</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,71 +471,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
         <v>1.142857142857143</v>
       </c>
-      <c r="E2" t="n">
-        <v>6</v>
-      </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>1.148148148148148</v>
       </c>
       <c r="E3" t="n">
-        <v>1.21978021978022</v>
+        <v>5.9</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.45</v>
+        <v>10.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1.571428571428571</v>
+        <v>1.060606060606061</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.24</v>
+        <v>1.408163265306122</v>
       </c>
       <c r="E5" t="n">
-        <v>1.675675675675676</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,49 +567,169 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="E6" t="n">
-        <v>1.704225352112676</v>
+        <v>6.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.068965517241379</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.289855072463768</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.253164556962025</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>IND</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.645161290322581</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.142857142857143</v>
+        <v>1.24390243902439</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.148148148148148</v>
+        <v>1.819672131147541</v>
       </c>
       <c r="E3" t="n">
-        <v>5.9</v>
+        <v>2.02</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.5</v>
+        <v>1.8</v>
       </c>
       <c r="E4" t="n">
-        <v>1.060606060606061</v>
+        <v>2.05</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,194 +543,26 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.408163265306122</v>
+        <v>1.980392156862745</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1.847457627118644</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F6" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.133333333333333</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.068965517241379</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1.289855072463768</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.253164556962025</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="E2" t="n">
-        <v>1.24390243902439</v>
+        <v>1.520833333333333</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,74 +495,266 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.819672131147541</v>
+        <v>1.192307692307692</v>
       </c>
       <c r="E3" t="n">
-        <v>2.02</v>
+        <v>4.9</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.8</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="E4" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.980392156862745</v>
+        <v>1.408163265306122</v>
       </c>
       <c r="E5" t="n">
-        <v>1.847457627118644</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.181818181818182</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.704225352112676</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.387596899224806</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.068965517241379</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.540540540540541</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.359712230215827</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/LR.xlsx
+++ b/Predictions/ModelsPredictions/LR.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,289 +471,49 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.6</v>
+        <v>1.074074074074074</v>
       </c>
       <c r="E2" t="n">
-        <v>1.520833333333333</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.192307692307692</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="E3" t="n">
-        <v>4.9</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1.645161290322581</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1.408163265306122</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.105263157894737</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.181818181818182</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.571428571428571</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.704225352112676</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.387596899224806</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.068965517241379</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.540540540540541</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.359712230215827</v>
-      </c>
-      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
